--- a/column_labels.xlsx
+++ b/column_labels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="197">
   <si>
     <t>column_name</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>RWD type</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>network type</t>
@@ -1043,7 +1046,9 @@
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="2" t="s">
@@ -1065,7 +1070,9 @@
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="2" t="s">
@@ -1095,17 +1102,21 @@
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -1113,43 +1124,55 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
       <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
       <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
       <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1157,7 +1180,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
@@ -1165,13 +1188,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
       <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
@@ -1179,49 +1204,55 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
       <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
       <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
       <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
@@ -1229,7 +1260,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>8</v>
@@ -1237,19 +1268,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>8</v>
@@ -1257,7 +1288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>8</v>
@@ -1265,7 +1296,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>8</v>
@@ -1273,7 +1304,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>8</v>
@@ -1281,7 +1312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>8</v>
@@ -1289,7 +1320,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -1297,7 +1328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
@@ -1305,7 +1336,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>8</v>
@@ -1313,7 +1344,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>8</v>
@@ -1321,7 +1352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>8</v>
@@ -1329,7 +1360,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
@@ -1337,7 +1368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>8</v>
@@ -1345,7 +1376,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>8</v>
@@ -1353,7 +1384,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>8</v>
@@ -1361,7 +1392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>8</v>
@@ -1369,7 +1400,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>8</v>
@@ -1377,7 +1408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>8</v>
@@ -1385,7 +1416,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>8</v>
@@ -1393,7 +1424,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>8</v>
@@ -1401,7 +1432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>8</v>
@@ -1409,7 +1440,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>8</v>
@@ -1417,7 +1448,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>8</v>
@@ -1425,7 +1456,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>8</v>
@@ -1433,7 +1464,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>8</v>
@@ -1441,7 +1472,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>8</v>
@@ -1449,7 +1480,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>8</v>
@@ -1457,7 +1488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>8</v>
@@ -1465,7 +1496,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>8</v>
@@ -1473,7 +1504,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>8</v>
@@ -1481,7 +1512,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>8</v>
@@ -1489,7 +1520,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>8</v>
@@ -1497,7 +1528,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>8</v>
@@ -1505,7 +1536,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>8</v>
@@ -1513,7 +1544,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>8</v>
@@ -1521,7 +1552,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>8</v>
@@ -1529,7 +1560,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>8</v>
@@ -1537,7 +1568,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>8</v>
@@ -1545,7 +1576,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>8</v>
@@ -1553,7 +1584,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
@@ -1561,7 +1592,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>8</v>
@@ -1569,7 +1600,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>8</v>
@@ -1577,7 +1608,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>8</v>
@@ -1585,7 +1616,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>8</v>
@@ -1593,7 +1624,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>8</v>
@@ -1601,7 +1632,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>8</v>
@@ -1609,7 +1640,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>8</v>
@@ -1617,7 +1648,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>8</v>
@@ -1625,7 +1656,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>8</v>
@@ -1633,7 +1664,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>8</v>
@@ -1641,7 +1672,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>8</v>
@@ -1649,7 +1680,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>8</v>
@@ -1657,7 +1688,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>8</v>
@@ -1665,7 +1696,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>8</v>
@@ -1673,7 +1704,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>8</v>
@@ -1681,7 +1712,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>8</v>
@@ -1689,7 +1720,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>8</v>
@@ -1697,7 +1728,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>8</v>
@@ -1705,7 +1736,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>8</v>
@@ -1713,7 +1744,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>8</v>
@@ -1721,7 +1752,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>8</v>
@@ -1729,7 +1760,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>8</v>
@@ -1737,7 +1768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>8</v>
@@ -1745,7 +1776,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
@@ -1753,7 +1784,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
@@ -1761,7 +1792,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>8</v>
@@ -1769,7 +1800,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>8</v>
@@ -1777,7 +1808,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
@@ -1785,7 +1816,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>8</v>
@@ -1793,7 +1824,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
@@ -1801,7 +1832,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>8</v>
@@ -1809,7 +1840,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>8</v>
@@ -1817,7 +1848,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>8</v>
@@ -1825,7 +1856,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>8</v>
@@ -1833,7 +1864,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>8</v>
@@ -1841,7 +1872,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
@@ -1849,7 +1880,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>8</v>
@@ -1857,7 +1888,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>8</v>
@@ -1865,7 +1896,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>8</v>
@@ -1873,7 +1904,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>8</v>
@@ -1881,7 +1912,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>8</v>
@@ -1889,7 +1920,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>8</v>
@@ -1897,7 +1928,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>8</v>
@@ -1905,7 +1936,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>8</v>
@@ -1913,7 +1944,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>8</v>
@@ -1921,7 +1952,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>8</v>
@@ -1929,7 +1960,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>8</v>
@@ -1937,7 +1968,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>8</v>
@@ -1945,7 +1976,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>8</v>
@@ -1953,7 +1984,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>8</v>
@@ -1961,7 +1992,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>8</v>
@@ -1969,7 +2000,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>8</v>
@@ -1977,7 +2008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>8</v>
@@ -1985,7 +2016,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>8</v>
@@ -1993,7 +2024,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>8</v>
@@ -2001,7 +2032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>8</v>
@@ -2009,7 +2040,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>8</v>
@@ -2017,7 +2048,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>8</v>
@@ -2025,7 +2056,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>8</v>
@@ -2033,7 +2064,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>8</v>
@@ -2041,7 +2072,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>8</v>
@@ -2049,7 +2080,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>8</v>
@@ -2057,7 +2088,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>8</v>
@@ -2065,7 +2096,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>8</v>
@@ -2073,7 +2104,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>8</v>
@@ -2081,7 +2112,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>8</v>
@@ -2089,7 +2120,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>8</v>
@@ -2097,7 +2128,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>8</v>
@@ -2105,7 +2136,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>8</v>
@@ -2113,7 +2144,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>8</v>
@@ -2121,7 +2152,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>8</v>
@@ -2129,7 +2160,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>8</v>
@@ -2137,7 +2168,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>8</v>
@@ -2145,7 +2176,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>8</v>
@@ -2153,15 +2184,15 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18">
       <c r="A154" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>8</v>
@@ -2169,7 +2200,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18">
       <c r="A155" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>8</v>
@@ -2177,7 +2208,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18">
       <c r="A156" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>8</v>
@@ -2185,7 +2216,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>8</v>
@@ -2193,7 +2224,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18">
       <c r="A158" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>8</v>
@@ -2201,7 +2232,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18">
       <c r="A159" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>8</v>
@@ -2209,7 +2240,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18">
       <c r="A160" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>8</v>
@@ -2217,7 +2248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18">
       <c r="A161" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>8</v>
@@ -2225,7 +2256,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18">
       <c r="A162" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>8</v>
@@ -2233,7 +2264,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18">
       <c r="A163" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>8</v>
@@ -2241,7 +2272,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18">
       <c r="A164" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>8</v>
@@ -2249,7 +2280,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
       <c r="A165" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>8</v>
@@ -2257,7 +2288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
       <c r="A166" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>8</v>
@@ -2265,7 +2296,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
       <c r="A167" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>8</v>
@@ -2273,7 +2304,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
       <c r="A168" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>8</v>
@@ -2281,7 +2312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
       <c r="A169" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>8</v>
@@ -2289,7 +2320,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
       <c r="A170" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>8</v>
@@ -2297,7 +2328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
       <c r="A171" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>8</v>
@@ -2305,7 +2336,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
       <c r="A172" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>8</v>
@@ -2313,7 +2344,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
       <c r="A173" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>8</v>
@@ -2321,7 +2352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
       <c r="A174" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>8</v>
@@ -2329,7 +2360,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
       <c r="A175" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>8</v>
@@ -2337,7 +2368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
       <c r="A176" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>8</v>
@@ -2345,7 +2376,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
       <c r="A177" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>8</v>
@@ -2353,7 +2384,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
       <c r="A178" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>8</v>
@@ -2361,7 +2392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
       <c r="A179" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>8</v>
@@ -2369,7 +2400,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
       <c r="A180" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>8</v>
@@ -2377,7 +2408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
       <c r="A181" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>8</v>
@@ -2385,7 +2416,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
       <c r="A182" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>8</v>
@@ -2393,7 +2424,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
       <c r="A183" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>8</v>
@@ -2401,7 +2432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
       <c r="A184" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>8</v>
@@ -2409,7 +2440,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
       <c r="A185" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>8</v>
@@ -2417,7 +2448,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
       <c r="A186" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>8</v>
@@ -2425,45 +2456,59 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
       <c r="A187" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B187" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
       <c r="A188" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B188" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
       <c r="A189" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B189" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
       <c r="A190" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B190" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18">
       <c r="A191" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B191" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18">
       <c r="A192" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B192" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18">
       <c r="A193" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B193" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/column_labels.xlsx
+++ b/column_labels.xlsx
@@ -1403,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
